--- a/2023_q2_price_index_data.xlsx
+++ b/2023_q2_price_index_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://depauledu-my.sharepoint.com/personal/gsmith33_depaul_edu/Documents/Documents/Data/Price Index/2023 1H/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elena/Code/SavvyCoders/sc-capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BA3B8E-15FB-EC49-8A0C-0E897C5F8F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="90" windowWidth="24240" windowHeight="13140" tabRatio="735"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="15" r:id="rId1"/>
@@ -904,7 +905,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1198,10 +1199,10 @@
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="style1649825629847" xfId="5"/>
-    <cellStyle name="style1649825629923" xfId="2"/>
-    <cellStyle name="style1649825630254" xfId="3"/>
-    <cellStyle name="style1649825630442" xfId="4"/>
+    <cellStyle name="style1649825629847" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="style1649825629923" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="style1649825630254" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="style1649825630442" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1512,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1520,13 +1521,13 @@
       <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="12.58203125" customWidth="1"/>
+    <col min="3" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>93</v>
       </c>
@@ -1556,7 +1557,7 @@
       </c>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>402000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>287500</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>309500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>355000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>820000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>343000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>387500</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>381500</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>615000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>1281000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>715000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>505000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>365000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>140</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>276000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>167</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>308000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>168</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>169</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -2524,7 +2525,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
         <v>172</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
         <v>173</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="10" t="s">
         <v>174</v>
       </c>
@@ -2693,7 +2694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK108"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -2703,13 +2704,13 @@
       <selection pane="bottomRight" activeCell="W108" sqref="W108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="35" width="10.83203125" style="2"/>
     <col min="36" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="E1" s="2" t="s">
         <v>165</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="32" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" s="32" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>84.168999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>90.466999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>90.637</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>89.891999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>90.65</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>89.653999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>92.465999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>94.921999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>97.064999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>99.308999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>97.712000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>99.793999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>101.404</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>102.605</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>103.271</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>104.857</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>107.001</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>111.66500000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>114.114</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>116.60599999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>118.247</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>120.569</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>122.639</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>123.995</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>125.97199999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>129.93700000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>134.893</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>139.59</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>147.816</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>153.393</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>156.55199999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>161.54300000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>166.19399999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>170.26400000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>177.239</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>180.88300000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>187.816</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -7330,7 +7331,7 @@
         <v>192.59299999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>195.29400000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -7556,7 +7557,7 @@
         <v>199.096</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>198.00899999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>197.07900000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>192.80199999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>187.63200000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -8121,7 +8122,7 @@
         <v>182.72200000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>171.14599999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>164.56299999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -8460,7 +8461,7 @@
         <v>157.93700000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -8573,7 +8574,7 @@
         <v>148.184</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>143.816</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>140.79</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>133.12100000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>128.37700000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>123.111</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -9251,7 +9252,7 @@
         <v>118.149</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>114.316</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>107.062</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>102.45699999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>94.878</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>89.692999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v>83.786000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -10042,7 +10043,7 @@
         <v>81.594999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>81.296000000000006</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -10268,7 +10269,7 @@
         <v>81.975999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -10381,7 +10382,7 @@
         <v>82.716999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>83.149000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -10720,7 +10721,7 @@
         <v>81.936000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -10833,7 +10834,7 @@
         <v>85.394999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -10946,7 +10947,7 @@
         <v>88.097999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>87.843000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -11172,7 +11173,7 @@
         <v>91.043000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -11285,7 +11286,7 @@
         <v>90.817999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -11398,7 +11399,7 @@
         <v>91.111000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -11511,7 +11512,7 @@
         <v>93.950999999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -11624,7 +11625,7 @@
         <v>96.858000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -11737,7 +11738,7 @@
         <v>98.122</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -11850,7 +11851,7 @@
         <v>102.679</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>105.962</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -12076,7 +12077,7 @@
         <v>104.598</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -12189,7 +12190,7 @@
         <v>107.1</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -12302,7 +12303,7 @@
         <v>108.306</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>110.08799999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>113.133</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -12641,7 +12642,7 @@
         <v>115.931</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -12754,7 +12755,7 @@
         <v>118.342</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -12867,7 +12868,7 @@
         <v>120.81699999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -12980,7 +12981,7 @@
         <v>122.705</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -13093,7 +13094,7 @@
         <v>125.07</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -13206,7 +13207,7 @@
         <v>128.29300000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>131.62899999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -13432,7 +13433,7 @@
         <v>134.47999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>140.953</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>270</v>
       </c>
@@ -13658,7 +13659,7 @@
         <v>143.56800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>271</v>
       </c>
@@ -13771,7 +13772,7 @@
         <v>151.61199999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>272</v>
       </c>
@@ -13884,7 +13885,7 @@
         <v>161.172</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>273</v>
       </c>
@@ -13997,7 +13998,7 @@
         <v>164.90899999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>274</v>
       </c>
@@ -14110,7 +14111,7 @@
         <v>175.41900000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>275</v>
       </c>
@@ -14223,7 +14224,7 @@
         <v>184.636</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>277</v>
       </c>
@@ -14336,7 +14337,7 @@
         <v>195.11500000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>276</v>
       </c>
@@ -14449,7 +14450,7 @@
         <v>203.58799999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>280</v>
       </c>
@@ -14562,7 +14563,7 @@
         <v>210.43899999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>281</v>
       </c>
@@ -14675,7 +14676,7 @@
         <v>223.25399999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A107" s="34" t="s">
         <v>282</v>
       </c>
@@ -14788,7 +14789,7 @@
         <v>217.30799999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A108" s="34" t="s">
         <v>283</v>
       </c>
@@ -14908,22 +14909,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="113.75" customWidth="1"/>
-    <col min="4" max="4" width="47.25" customWidth="1"/>
+    <col min="3" max="3" width="113.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>93</v>
       </c>
@@ -14940,7 +14941,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>177</v>
       </c>
@@ -14957,7 +14958,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>181</v>
       </c>
@@ -14974,7 +14975,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>185</v>
       </c>
@@ -14987,7 +14988,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>187</v>
       </c>
@@ -15004,7 +15005,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>191</v>
       </c>
@@ -15021,7 +15022,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>195</v>
       </c>
@@ -15038,7 +15039,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>199</v>
       </c>
@@ -15055,7 +15056,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>203</v>
       </c>
@@ -15072,7 +15073,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>207</v>
       </c>
@@ -15089,7 +15090,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>211</v>
       </c>
@@ -15106,7 +15107,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>215</v>
       </c>
@@ -15119,7 +15120,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>217</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>220</v>
       </c>
@@ -15151,7 +15152,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>222</v>
       </c>
@@ -15168,7 +15169,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>225</v>
       </c>
@@ -15185,7 +15186,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>229</v>
       </c>
@@ -15202,7 +15203,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>233</v>
       </c>
@@ -15219,7 +15220,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>236</v>
       </c>
@@ -15232,7 +15233,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>238</v>
       </c>
@@ -15245,7 +15246,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>240</v>
       </c>
@@ -15258,7 +15259,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>242</v>
       </c>
@@ -15271,7 +15272,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>244</v>
       </c>
@@ -15284,7 +15285,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>246</v>
       </c>
@@ -15297,7 +15298,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>248</v>
       </c>
@@ -15310,7 +15311,7 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>250</v>
       </c>
@@ -15323,7 +15324,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>252</v>
       </c>
@@ -15336,7 +15337,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>253</v>
       </c>
@@ -15349,7 +15350,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>255</v>
       </c>
@@ -15362,7 +15363,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>257</v>
       </c>
@@ -15375,7 +15376,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>259</v>
       </c>
@@ -15388,7 +15389,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>261</v>
       </c>
@@ -15401,7 +15402,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>263</v>
       </c>
@@ -15414,7 +15415,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>265</v>
       </c>
@@ -15427,7 +15428,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>268</v>
       </c>
@@ -15438,53 +15439,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.58203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1">
         <v>3401</v>
@@ -15586,7 +15587,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="29" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" s="29" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="26" t="s">
         <v>106</v>
@@ -15691,7 +15692,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1997</v>
       </c>
@@ -15798,7 +15799,7 @@
         <v>31057</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>1998</v>
       </c>
@@ -15905,7 +15906,7 @@
         <v>27149</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>1999</v>
       </c>
@@ -16012,7 +16013,7 @@
         <v>35562</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>2000</v>
       </c>
@@ -16119,7 +16120,7 @@
         <v>37153</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>2001</v>
       </c>
@@ -16226,7 +16227,7 @@
         <v>39517</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>2002</v>
       </c>
@@ -16333,7 +16334,7 @@
         <v>41714</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>2003</v>
       </c>
@@ -16440,7 +16441,7 @@
         <v>45993</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>2004</v>
       </c>
@@ -16547,7 +16548,7 @@
         <v>51019</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>2005</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>54095</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>2006</v>
       </c>
@@ -16761,7 +16762,7 @@
         <v>44457</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>2007</v>
       </c>
@@ -16868,7 +16869,7 @@
         <v>31616</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>2008</v>
       </c>
@@ -16975,7 +16976,7 @@
         <v>22316</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>2009</v>
       </c>
@@ -17082,7 +17083,7 @@
         <v>24201</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>2010</v>
       </c>
@@ -17189,7 +17190,7 @@
         <v>24341</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>2011</v>
       </c>
@@ -17296,7 +17297,7 @@
         <v>23285</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>2012</v>
       </c>
@@ -17403,7 +17404,7 @@
         <v>29586</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>2013</v>
       </c>
@@ -17510,7 +17511,7 @@
         <v>36457</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>2014</v>
       </c>
@@ -17617,7 +17618,7 @@
         <v>32546</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>2015</v>
       </c>
@@ -17724,7 +17725,7 @@
         <v>29626</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>2016</v>
       </c>
@@ -17831,7 +17832,7 @@
         <v>31277</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>2017</v>
       </c>
@@ -17938,7 +17939,7 @@
         <v>38679</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>2018</v>
       </c>
@@ -18045,7 +18046,7 @@
         <v>36993</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>2019</v>
       </c>
@@ -18152,7 +18153,7 @@
         <v>36060</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>2020</v>
       </c>
@@ -18259,7 +18260,7 @@
         <v>25137</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>2021</v>
       </c>
@@ -18366,7 +18367,7 @@
         <v>33691</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>2022</v>
       </c>
@@ -18473,7 +18474,7 @@
         <v>20672</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>2023</v>
       </c>
@@ -18580,7 +18581,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>92</v>
       </c>
@@ -18693,23 +18694,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="16476aad-8651-421c-b4dd-c28978180391" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007BC402628D3F6D4ABF2B67B79A8A5BA5" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf45313f860eb37225f02a0712111ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3bffcb9e-56d6-45e0-9498-1447942a9380" xmlns:ns4="16476aad-8651-421c-b4dd-c28978180391" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ecf8a99162aa512fe4e4691f041036b" ns3:_="" ns4:_="">
     <xsd:import namespace="3bffcb9e-56d6-45e0-9498-1447942a9380"/>
@@ -18944,10 +18928,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="16476aad-8651-421c-b4dd-c28978180391" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E253262-874A-4D1A-8490-D8144E65CAFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08012AED-308C-4163-B04E-341AC365CF55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3bffcb9e-56d6-45e0-9498-1447942a9380"/>
+    <ds:schemaRef ds:uri="16476aad-8651-421c-b4dd-c28978180391"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18970,20 +18982,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08012AED-308C-4163-B04E-341AC365CF55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E253262-874A-4D1A-8490-D8144E65CAFC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3bffcb9e-56d6-45e0-9498-1447942a9380"/>
-    <ds:schemaRef ds:uri="16476aad-8651-421c-b4dd-c28978180391"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>